--- a/ListJob.xlsx
+++ b/ListJob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\ProjectWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CED6299-CBA3-497A-B5FD-43D83E4B3A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C807B8-3E06-4907-B93A-F18E2D6AB306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{8605C003-4F96-41EC-AAF2-0B2B5FFE98C8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9270" xr2:uid="{8605C003-4F96-41EC-AAF2-0B2B5FFE98C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>inputJob</t>
   </si>
@@ -136,19 +136,40 @@
   </si>
   <si>
     <t>able to create</t>
+  </si>
+  <si>
+    <t>Vocational</t>
+  </si>
+  <si>
+    <t>Graduate (Master's)</t>
+  </si>
+  <si>
+    <t>Graduate (Doctoral)</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>edu_input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE1C28-546A-4677-8E25-0744C16AFEFE}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +523,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +545,11 @@
       <c r="G1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -546,8 +571,11 @@
       <c r="G2" t="s">
         <v>30</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -569,8 +597,11 @@
       <c r="G3" t="s">
         <v>31</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -592,8 +623,11 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -614,9 +648,13 @@
       </c>
       <c r="G5" t="s">
         <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>